--- a/LCAPI/bin/Release/net7.0/lc_resource/media_data.xlsx
+++ b/LCAPI/bin/Release/net7.0/lc_resource/media_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PXQ\Desktop\LC\LCAPI\lc_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C278C33C-D8D7-4B5A-ABCB-8C3F0D4BD473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41BE3BC-0D43-41B2-87C6-CEF6F37785D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20280" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>语种</t>
   </si>
@@ -97,6 +97,13 @@
   </si>
   <si>
     <t>video_duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video_equipment_tag</t>
+  </si>
+  <si>
+    <t>装备分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -498,7 +505,7 @@
     <col min="6" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -532,8 +539,11 @@
       <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,18 +576,22 @@
       </c>
       <c r="K2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="可填写值：中文，英文，日文，俄文，其他_x000a_如果具有多种语言，使用空格隔开_x000a_例：中文 英文" sqref="A1:A1048576" xr:uid="{C5E1F1DA-3C5B-404C-AF1F-5B2DB01CBC3F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="多个关键词，使用空格隔开_x000a_关键词1 关键词2 关键词3" sqref="B1:B1048576" xr:uid="{DB40BFD2-D341-4AFF-852A-99C598C4072E}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="多个标签使用空格分开" sqref="C1:C1048576" xr:uid="{E0CE42ED-A862-4597-9FB9-3A70EA069DA9}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="任意包含年月日信息的时间值都可以。_x000a_单元格类型务必是文本类型_x000a_例：_x000a_2002年1月2日_x000a_2002.1.2_x000a_2002/12/02_x000a_44569 这种不可以" sqref="D1:D1048576" xr:uid="{8CE4CD0A-371D-4721-84D7-7C28A5455F16}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="任意文本" sqref="J1:J1048576 E1:H1048576" xr:uid="{510536EE-0F7A-4358-91BB-19F90AD526C0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="文件大小，单位为MB，直接填写数字_x000a_务必改为文本格式_x000a_科学计数法无法识别_x000a_例_x000a_1_x000a_5000_x000a_3.2" sqref="I1:I1048576" xr:uid="{A0E9693F-270B-436B-8BD5-339C1A9E2B5A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="任意字符串" sqref="I1:I1048576" xr:uid="{A0E9693F-270B-436B-8BD5-339C1A9E2B5A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="只接受一种格式，时:分:秒_x000a_单元格格式为文本" sqref="K1:K1048576" xr:uid="{AF13F1E8-53A9-4C0D-9623-9A6563C50732}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="多个分类，使用空格分隔_x000a_例_x000a_分类一 分类二 分类三" sqref="L1:L1048576" xr:uid="{B94A751C-05C9-4EAB-8199-846084091725}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
